--- a/2024 Wc 交接/零用金申請.xlsx
+++ b/2024 Wc 交接/零用金申請.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nthccimnas01\S000\DeptShare\S200\2024 Wc 交接\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EFC7B4-469D-441A-A85A-B89637D44D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130EC36-DDE3-4B90-91D2-82D6F9ADDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3B875B1-122F-4B9A-94C1-4F68F945694F}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="Z_3D70BB9E_F9A4_49B1_A37E_0E63C8D4FDF5_.wvu.Rows" localSheetId="1" hidden="1">工作表1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="1226">
   <si>
     <t>購買物品 經費收支表</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -4726,6 +4725,22 @@
   </si>
   <si>
     <t>SPRT ACCEL清潔 費用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹德仁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買 GSD-5(G10)電磁閥開關</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳侑聖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買 DC-DC converter</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -23151,7 +23166,7 @@
       <selection activeCell="B736" sqref="B736"/>
       <selection pane="topRight" activeCell="B736" sqref="B736"/>
       <selection pane="bottomLeft" activeCell="B736" sqref="B736"/>
-      <selection pane="bottomRight" activeCell="B1464" sqref="B1464"/>
+      <selection pane="bottomRight" activeCell="H1468" sqref="H1468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -47167,19 +47182,39 @@
       <c r="F1465" s="45"/>
     </row>
     <row r="1466" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1466" s="45"/>
-      <c r="B1466" s="49"/>
-      <c r="C1466" s="47"/>
-      <c r="D1466" s="49"/>
-      <c r="E1466" s="45"/>
+      <c r="A1466" s="45" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1466" s="49" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1466" s="47">
+        <v>45628</v>
+      </c>
+      <c r="D1466" s="49">
+        <v>2016</v>
+      </c>
+      <c r="E1466" s="45" t="s">
+        <v>451</v>
+      </c>
       <c r="F1466" s="45"/>
     </row>
     <row r="1467" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1467" s="45"/>
-      <c r="B1467" s="49"/>
-      <c r="C1467" s="47"/>
-      <c r="D1467" s="49"/>
-      <c r="E1467" s="45"/>
+      <c r="A1467" s="45" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1467" s="49" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1467" s="47">
+        <v>45638</v>
+      </c>
+      <c r="D1467" s="49">
+        <v>4725</v>
+      </c>
+      <c r="E1467" s="45" t="s">
+        <v>451</v>
+      </c>
       <c r="F1467" s="45"/>
     </row>
     <row r="1468" spans="1:6" ht="21" x14ac:dyDescent="0.25">

--- a/2024 Wc 交接/零用金申請.xlsx
+++ b/2024 Wc 交接/零用金申請.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nthccimnas01\S000\DeptShare\S200\2024 Wc 交接\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JYLIN\Desktop\gh\2024 Wc 交接\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130EC36-DDE3-4B90-91D2-82D6F9ADDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA91E8-65A4-486E-BCEF-31BAD6BEA5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3B875B1-122F-4B9A-94C1-4F68F945694F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5190" uniqueCount="1226">
   <si>
     <t>購買物品 經費收支表</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -4705,9 +4705,6 @@
     <t>邱尊護</t>
   </si>
   <si>
-    <t>購買 電腦切換器 費用</t>
-  </si>
-  <si>
     <t>李治中</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4742,6 +4739,9 @@
   <si>
     <t>購買 DC-DC converter</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐陽以恆</t>
   </si>
 </sst>
 </file>
@@ -4749,10 +4749,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="mm/dd"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="mm/dd"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -4984,7 +4984,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5003,7 +5003,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5022,7 +5022,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5047,7 +5047,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5056,7 +5056,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5074,17 +5074,17 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5111,7 +5111,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5141,7 +5141,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5484,7 +5484,7 @@
   <dimension ref="A1:I839"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B736" sqref="B736"/>
       <selection pane="bottomLeft" activeCell="I740" sqref="I740:I741"/>
     </sheetView>
@@ -22535,7 +22535,7 @@
         <v>444</v>
       </c>
       <c r="B741" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C741" s="17"/>
       <c r="D741" s="18">
@@ -23159,14 +23159,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511CB97-AA3C-48CD-A3C2-70853CF3286F}">
-  <dimension ref="A1:I1470"/>
+  <dimension ref="A1:I1472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B1452" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B1454" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B736" sqref="B736"/>
       <selection pane="topRight" activeCell="B736" sqref="B736"/>
       <selection pane="bottomLeft" activeCell="B736" sqref="B736"/>
-      <selection pane="bottomRight" activeCell="H1468" sqref="H1468"/>
+      <selection pane="bottomRight" activeCell="L1477" sqref="L1477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -47078,13 +47078,13 @@
         <v>777</v>
       </c>
       <c r="B1460" s="49" t="s">
-        <v>1216</v>
+        <v>1070</v>
       </c>
       <c r="C1460" s="47">
         <v>45601</v>
       </c>
       <c r="D1460" s="49">
-        <v>2403</v>
+        <v>8533</v>
       </c>
       <c r="E1460" s="45" t="s">
         <v>451</v>
@@ -47093,16 +47093,16 @@
     </row>
     <row r="1461" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1461" s="45" t="s">
-        <v>460</v>
+        <v>777</v>
       </c>
       <c r="B1461" s="49" t="s">
-        <v>1211</v>
+        <v>1070</v>
       </c>
       <c r="C1461" s="47">
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="D1461" s="49">
-        <v>4578</v>
+        <v>2403</v>
       </c>
       <c r="E1461" s="45" t="s">
         <v>451</v>
@@ -47117,10 +47117,10 @@
         <v>1211</v>
       </c>
       <c r="C1462" s="47">
-        <v>45604</v>
+        <v>45597</v>
       </c>
       <c r="D1462" s="49">
-        <v>3275</v>
+        <v>4578</v>
       </c>
       <c r="E1462" s="45" t="s">
         <v>451</v>
@@ -47132,13 +47132,13 @@
         <v>460</v>
       </c>
       <c r="B1463" s="49" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="C1463" s="47">
-        <v>45599</v>
+        <v>45604</v>
       </c>
       <c r="D1463" s="49">
-        <v>744</v>
+        <v>3275</v>
       </c>
       <c r="E1463" s="45" t="s">
         <v>451</v>
@@ -47147,16 +47147,16 @@
     </row>
     <row r="1464" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1464" s="45" t="s">
-        <v>1219</v>
+        <v>460</v>
       </c>
       <c r="B1464" s="49" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C1464" s="47">
-        <v>45610</v>
+        <v>45599</v>
       </c>
       <c r="D1464" s="49">
-        <v>3150</v>
+        <v>744</v>
       </c>
       <c r="E1464" s="45" t="s">
         <v>451</v>
@@ -47165,16 +47165,16 @@
     </row>
     <row r="1465" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1465" s="45" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B1465" s="49" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C1465" s="47">
-        <v>45617</v>
+        <v>45610</v>
       </c>
       <c r="D1465" s="49">
-        <v>230</v>
+        <v>3150</v>
       </c>
       <c r="E1465" s="45" t="s">
         <v>451</v>
@@ -47183,16 +47183,16 @@
     </row>
     <row r="1466" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1466" s="45" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B1466" s="49" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C1466" s="47">
-        <v>45628</v>
+        <v>45617</v>
       </c>
       <c r="D1466" s="49">
-        <v>2016</v>
+        <v>230</v>
       </c>
       <c r="E1466" s="45" t="s">
         <v>451</v>
@@ -47201,45 +47201,101 @@
     </row>
     <row r="1467" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1467" s="45" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1467" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1467" s="47">
+        <v>45637</v>
+      </c>
+      <c r="D1467" s="49">
+        <v>3738</v>
+      </c>
+      <c r="E1467" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1467" s="45"/>
+    </row>
+    <row r="1468" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1468" s="45" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1468" s="49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1468" s="47">
+        <v>45628</v>
+      </c>
+      <c r="D1468" s="49">
+        <v>2016</v>
+      </c>
+      <c r="E1468" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1468" s="45"/>
+    </row>
+    <row r="1469" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1469" s="45" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1469" s="49" t="s">
         <v>1224</v>
       </c>
-      <c r="B1467" s="49" t="s">
+      <c r="C1469" s="47">
+        <v>45638</v>
+      </c>
+      <c r="D1469" s="49">
+        <v>4725</v>
+      </c>
+      <c r="E1469" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1469" s="45"/>
+    </row>
+    <row r="1470" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1470" s="45" t="s">
         <v>1225</v>
       </c>
-      <c r="C1467" s="47">
-        <v>45638</v>
-      </c>
-      <c r="D1467" s="49">
-        <v>4725</v>
-      </c>
-      <c r="E1467" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="F1467" s="45"/>
-    </row>
-    <row r="1468" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1468" s="45"/>
-      <c r="B1468" s="49"/>
-      <c r="C1468" s="47"/>
-      <c r="D1468" s="49"/>
-      <c r="E1468" s="45"/>
-      <c r="F1468" s="45"/>
-    </row>
-    <row r="1469" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1469" s="45"/>
-      <c r="B1469" s="49"/>
-      <c r="C1469" s="47"/>
-      <c r="D1469" s="49"/>
-      <c r="E1469" s="45"/>
-      <c r="F1469" s="45"/>
-    </row>
-    <row r="1470" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1470" s="45"/>
-      <c r="B1470" s="49"/>
-      <c r="C1470" s="47"/>
-      <c r="D1470" s="49"/>
-      <c r="E1470" s="45"/>
+      <c r="B1470" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1470" s="47">
+        <v>45645</v>
+      </c>
+      <c r="D1470" s="49">
+        <v>529</v>
+      </c>
+      <c r="E1470" s="45" t="s">
+        <v>451</v>
+      </c>
       <c r="F1470" s="45"/>
+    </row>
+    <row r="1471" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1471" s="45" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1471" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1471" s="47">
+        <v>45645</v>
+      </c>
+      <c r="D1471" s="49">
+        <v>34</v>
+      </c>
+      <c r="E1471" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1471" s="45"/>
+    </row>
+    <row r="1472" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1472" s="45"/>
+      <c r="B1472" s="49"/>
+      <c r="C1472" s="47"/>
+      <c r="D1472" s="49"/>
+      <c r="E1472" s="45"/>
+      <c r="F1472" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
